--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Efnb1-Ephb3.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Efnb1-Ephb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.00688127758966</v>
+        <v>10.31211433333333</v>
       </c>
       <c r="H2">
-        <v>6.00688127758966</v>
+        <v>30.936343</v>
       </c>
       <c r="I2">
-        <v>0.5050194919253074</v>
+        <v>0.633340936097251</v>
       </c>
       <c r="J2">
-        <v>0.5050194919253074</v>
+        <v>0.633340936097251</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>10.8840801787255</v>
+        <v>0.07588399999999999</v>
       </c>
       <c r="N2">
-        <v>10.8840801787255</v>
+        <v>0.227652</v>
       </c>
       <c r="O2">
-        <v>0.7974408226442251</v>
+        <v>0.005197207581907009</v>
       </c>
       <c r="P2">
-        <v>0.7974408226442251</v>
+        <v>0.00519720758190701</v>
       </c>
       <c r="Q2">
-        <v>65.37937744937092</v>
+        <v>0.7825244840706667</v>
       </c>
       <c r="R2">
-        <v>65.37937744937092</v>
+        <v>7.042720356636</v>
       </c>
       <c r="S2">
-        <v>0.4027231590922857</v>
+        <v>0.003291604315016715</v>
       </c>
       <c r="T2">
-        <v>0.4027231590922857</v>
+        <v>0.003291604315016716</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.00688127758966</v>
+        <v>10.31211433333333</v>
       </c>
       <c r="H3">
-        <v>6.00688127758966</v>
+        <v>30.936343</v>
       </c>
       <c r="I3">
-        <v>0.5050194919253074</v>
+        <v>0.633340936097251</v>
       </c>
       <c r="J3">
-        <v>0.5050194919253074</v>
+        <v>0.633340936097251</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.7646820487149</v>
+        <v>11.71993</v>
       </c>
       <c r="N3">
-        <v>2.7646820487149</v>
+        <v>35.15979</v>
       </c>
       <c r="O3">
-        <v>0.2025591773557748</v>
+        <v>0.80268447967186</v>
       </c>
       <c r="P3">
-        <v>0.2025591773557748</v>
+        <v>0.80268447967186</v>
       </c>
       <c r="Q3">
-        <v>16.60711683691376</v>
+        <v>120.8572581386633</v>
       </c>
       <c r="R3">
-        <v>16.60711683691376</v>
+        <v>1087.71532324797</v>
       </c>
       <c r="S3">
-        <v>0.1022963328330216</v>
+        <v>0.5083729397461106</v>
       </c>
       <c r="T3">
-        <v>0.1022963328330216</v>
+        <v>0.5083729397461106</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.10249084289452</v>
+        <v>10.31211433333333</v>
       </c>
       <c r="H4">
-        <v>4.10249084289452</v>
+        <v>30.936343</v>
       </c>
       <c r="I4">
-        <v>0.3449107357650605</v>
+        <v>0.633340936097251</v>
       </c>
       <c r="J4">
-        <v>0.3449107357650605</v>
+        <v>0.633340936097251</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.8840801787255</v>
+        <v>2.805103666666666</v>
       </c>
       <c r="N4">
-        <v>10.8840801787255</v>
+        <v>8.415310999999999</v>
       </c>
       <c r="O4">
-        <v>0.7974408226442251</v>
+        <v>0.1921183127462331</v>
       </c>
       <c r="P4">
-        <v>0.7974408226442251</v>
+        <v>0.1921183127462331</v>
       </c>
       <c r="Q4">
-        <v>44.65183926655111</v>
+        <v>28.92654972751922</v>
       </c>
       <c r="R4">
-        <v>44.65183926655111</v>
+        <v>260.338947547673</v>
       </c>
       <c r="S4">
-        <v>0.2750459008673148</v>
+        <v>0.1216763920361237</v>
       </c>
       <c r="T4">
-        <v>0.2750459008673148</v>
+        <v>0.1216763920361237</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.10249084289452</v>
+        <v>4.103438</v>
       </c>
       <c r="H5">
-        <v>4.10249084289452</v>
+        <v>12.310314</v>
       </c>
       <c r="I5">
-        <v>0.3449107357650605</v>
+        <v>0.2520215719230645</v>
       </c>
       <c r="J5">
-        <v>0.3449107357650605</v>
+        <v>0.2520215719230645</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.7646820487149</v>
+        <v>0.07588399999999999</v>
       </c>
       <c r="N5">
-        <v>2.7646820487149</v>
+        <v>0.227652</v>
       </c>
       <c r="O5">
-        <v>0.2025591773557748</v>
+        <v>0.005197207581907009</v>
       </c>
       <c r="P5">
-        <v>0.2025591773557748</v>
+        <v>0.00519720758190701</v>
       </c>
       <c r="Q5">
-        <v>11.34208278836774</v>
+        <v>0.3113852891919999</v>
       </c>
       <c r="R5">
-        <v>11.34208278836774</v>
+        <v>2.802467602728</v>
       </c>
       <c r="S5">
-        <v>0.06986483489774568</v>
+        <v>0.001309808424402674</v>
       </c>
       <c r="T5">
-        <v>0.06986483489774568</v>
+        <v>0.001309808424402674</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.78498319378175</v>
+        <v>4.103438</v>
       </c>
       <c r="H6">
-        <v>1.78498319378175</v>
+        <v>12.310314</v>
       </c>
       <c r="I6">
-        <v>0.150069772309632</v>
+        <v>0.2520215719230645</v>
       </c>
       <c r="J6">
-        <v>0.150069772309632</v>
+        <v>0.2520215719230645</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.8840801787255</v>
+        <v>11.71993</v>
       </c>
       <c r="N6">
-        <v>10.8840801787255</v>
+        <v>35.15979</v>
       </c>
       <c r="O6">
-        <v>0.7974408226442251</v>
+        <v>0.80268447967186</v>
       </c>
       <c r="P6">
-        <v>0.7974408226442251</v>
+        <v>0.80268447967186</v>
       </c>
       <c r="Q6">
-        <v>19.42790019879808</v>
+        <v>48.09200611934</v>
       </c>
       <c r="R6">
-        <v>19.42790019879808</v>
+        <v>432.8280550740599</v>
       </c>
       <c r="S6">
-        <v>0.1196717626846245</v>
+        <v>0.2022938043251493</v>
       </c>
       <c r="T6">
-        <v>0.1196717626846245</v>
+        <v>0.2022938043251492</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.78498319378175</v>
+        <v>4.103438</v>
       </c>
       <c r="H7">
-        <v>1.78498319378175</v>
+        <v>12.310314</v>
       </c>
       <c r="I7">
-        <v>0.150069772309632</v>
+        <v>0.2520215719230645</v>
       </c>
       <c r="J7">
-        <v>0.150069772309632</v>
+        <v>0.2520215719230645</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.7646820487149</v>
+        <v>2.805103666666666</v>
       </c>
       <c r="N7">
-        <v>2.7646820487149</v>
+        <v>8.415310999999999</v>
       </c>
       <c r="O7">
-        <v>0.2025591773557748</v>
+        <v>0.1921183127462331</v>
       </c>
       <c r="P7">
-        <v>0.2025591773557748</v>
+        <v>0.1921183127462331</v>
       </c>
       <c r="Q7">
-        <v>4.934910993106194</v>
+        <v>11.51056897973933</v>
       </c>
       <c r="R7">
-        <v>4.934910993106194</v>
+        <v>103.595120817654</v>
       </c>
       <c r="S7">
-        <v>0.0303980096250075</v>
+        <v>0.04841795917351258</v>
       </c>
       <c r="T7">
-        <v>0.0303980096250075</v>
+        <v>0.04841795917351258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.866538</v>
+      </c>
+      <c r="H8">
+        <v>5.599614</v>
+      </c>
+      <c r="I8">
+        <v>0.1146374919796846</v>
+      </c>
+      <c r="J8">
+        <v>0.1146374919796846</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.07588399999999999</v>
+      </c>
+      <c r="N8">
+        <v>0.227652</v>
+      </c>
+      <c r="O8">
+        <v>0.005197207581907009</v>
+      </c>
+      <c r="P8">
+        <v>0.00519720758190701</v>
+      </c>
+      <c r="Q8">
+        <v>0.141640369592</v>
+      </c>
+      <c r="R8">
+        <v>1.274763326328</v>
+      </c>
+      <c r="S8">
+        <v>0.0005957948424876208</v>
+      </c>
+      <c r="T8">
+        <v>0.0005957948424876208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.866538</v>
+      </c>
+      <c r="H9">
+        <v>5.599614</v>
+      </c>
+      <c r="I9">
+        <v>0.1146374919796846</v>
+      </c>
+      <c r="J9">
+        <v>0.1146374919796846</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>11.71993</v>
+      </c>
+      <c r="N9">
+        <v>35.15979</v>
+      </c>
+      <c r="O9">
+        <v>0.80268447967186</v>
+      </c>
+      <c r="P9">
+        <v>0.80268447967186</v>
+      </c>
+      <c r="Q9">
+        <v>21.87569470234</v>
+      </c>
+      <c r="R9">
+        <v>196.88125232106</v>
+      </c>
+      <c r="S9">
+        <v>0.09201773560060014</v>
+      </c>
+      <c r="T9">
+        <v>0.09201773560060013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.866538</v>
+      </c>
+      <c r="H10">
+        <v>5.599614</v>
+      </c>
+      <c r="I10">
+        <v>0.1146374919796846</v>
+      </c>
+      <c r="J10">
+        <v>0.1146374919796846</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.805103666666666</v>
+      </c>
+      <c r="N10">
+        <v>8.415310999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.1921183127462331</v>
+      </c>
+      <c r="P10">
+        <v>0.1921183127462331</v>
+      </c>
+      <c r="Q10">
+        <v>5.235832587772666</v>
+      </c>
+      <c r="R10">
+        <v>47.12249328995399</v>
+      </c>
+      <c r="S10">
+        <v>0.02202396153659683</v>
+      </c>
+      <c r="T10">
+        <v>0.02202396153659683</v>
       </c>
     </row>
   </sheetData>
